--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angpt4-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angpt4-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,13 +91,10 @@
     <t>Tek</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.027368666666667</v>
+        <v>0.274159</v>
       </c>
       <c r="H2">
-        <v>3.082106</v>
+        <v>0.548318</v>
       </c>
       <c r="I2">
-        <v>0.7595351715900243</v>
+        <v>0.1400245547796909</v>
       </c>
       <c r="J2">
-        <v>0.8257207729145039</v>
+        <v>0.1109228180146661</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N2">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O2">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P2">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q2">
-        <v>72.15982162184567</v>
+        <v>18.320043238505</v>
       </c>
       <c r="R2">
-        <v>432.958929731074</v>
+        <v>73.28017295402</v>
       </c>
       <c r="S2">
-        <v>0.4462446898440238</v>
+        <v>0.1328104205185696</v>
       </c>
       <c r="T2">
-        <v>0.4051352313905948</v>
+        <v>0.1029455284022982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.027368666666667</v>
+        <v>0.274159</v>
       </c>
       <c r="H3">
-        <v>3.082106</v>
+        <v>0.548318</v>
       </c>
       <c r="I3">
-        <v>0.7595351715900243</v>
+        <v>0.1400245547796909</v>
       </c>
       <c r="J3">
-        <v>0.8257207729145039</v>
+        <v>0.1109228180146661</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O3">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P3">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q3">
-        <v>2.881564321179111</v>
+        <v>0.7689613459726666</v>
       </c>
       <c r="R3">
-        <v>25.934078890612</v>
+        <v>4.613768075835999</v>
       </c>
       <c r="S3">
-        <v>0.01781992732061978</v>
+        <v>0.005574554513414405</v>
       </c>
       <c r="T3">
-        <v>0.0242674497065488</v>
+        <v>0.006481518442793687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.027368666666667</v>
+        <v>0.274159</v>
       </c>
       <c r="H4">
-        <v>3.082106</v>
+        <v>0.548318</v>
       </c>
       <c r="I4">
-        <v>0.7595351715900243</v>
+        <v>0.1400245547796909</v>
       </c>
       <c r="J4">
-        <v>0.8257207729145039</v>
+        <v>0.1109228180146661</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N4">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O4">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P4">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q4">
-        <v>2.158098326465</v>
+        <v>0.02025276503433333</v>
       </c>
       <c r="R4">
-        <v>12.94858995879</v>
+        <v>0.121516590206</v>
       </c>
       <c r="S4">
-        <v>0.01334592986375579</v>
+        <v>0.0001468216098540764</v>
       </c>
       <c r="T4">
-        <v>0.01211646100565416</v>
+        <v>0.0001707090620030525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.027368666666667</v>
+        <v>0.274159</v>
       </c>
       <c r="H5">
-        <v>3.082106</v>
+        <v>0.548318</v>
       </c>
       <c r="I5">
-        <v>0.7595351715900243</v>
+        <v>0.1400245547796909</v>
       </c>
       <c r="J5">
-        <v>0.8257207729145039</v>
+        <v>0.1109228180146661</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N5">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O5">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P5">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q5">
-        <v>45.51166825595778</v>
+        <v>0.1461266099205</v>
       </c>
       <c r="R5">
-        <v>409.60501430362</v>
+        <v>0.5845064396819999</v>
       </c>
       <c r="S5">
-        <v>0.2814494247449128</v>
+        <v>0.001059339012459574</v>
       </c>
       <c r="T5">
-        <v>0.3832821333693695</v>
+        <v>0.000821126941462938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.027368666666667</v>
+        <v>0.274159</v>
       </c>
       <c r="H6">
-        <v>3.082106</v>
+        <v>0.548318</v>
       </c>
       <c r="I6">
-        <v>0.7595351715900243</v>
+        <v>0.1400245547796909</v>
       </c>
       <c r="J6">
-        <v>0.8257207729145039</v>
+        <v>0.1109228180146661</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N6">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O6">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P6">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q6">
-        <v>0.1091829201375556</v>
+        <v>0.05978640144799999</v>
       </c>
       <c r="R6">
-        <v>0.9826462812380001</v>
+        <v>0.3587184086879999</v>
       </c>
       <c r="S6">
-        <v>0.0006751998167121039</v>
+        <v>0.0004334191253933337</v>
       </c>
       <c r="T6">
-        <v>0.0009194974423364854</v>
+        <v>0.0005039351661081459</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3252595</v>
+        <v>1.027368666666667</v>
       </c>
       <c r="H7">
-        <v>0.650519</v>
+        <v>3.082106</v>
       </c>
       <c r="I7">
-        <v>0.2404648284099757</v>
+        <v>0.5247204729540329</v>
       </c>
       <c r="J7">
-        <v>0.1742792270854961</v>
+        <v>0.6234992886243209</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N7">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O7">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P7">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q7">
-        <v>22.84541884751275</v>
+        <v>68.65154306522334</v>
       </c>
       <c r="R7">
-        <v>91.381675390051</v>
+        <v>411.90925839134</v>
       </c>
       <c r="S7">
-        <v>0.1412787146480254</v>
+        <v>0.4976866148753173</v>
       </c>
       <c r="T7">
-        <v>0.08550911798263211</v>
+        <v>0.5786587906322496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3252595</v>
+        <v>1.027368666666667</v>
       </c>
       <c r="H8">
-        <v>0.650519</v>
+        <v>3.082106</v>
       </c>
       <c r="I8">
-        <v>0.2404648284099757</v>
+        <v>0.5247204729540329</v>
       </c>
       <c r="J8">
-        <v>0.1742792270854961</v>
+        <v>0.6234992886243209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O8">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P8">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q8">
-        <v>0.9122880624396665</v>
+        <v>2.881564321179111</v>
       </c>
       <c r="R8">
-        <v>5.473728374637999</v>
+        <v>25.93407889061199</v>
       </c>
       <c r="S8">
-        <v>0.005641694980971902</v>
+        <v>0.02088978526222814</v>
       </c>
       <c r="T8">
-        <v>0.005121964369705135</v>
+        <v>0.03643273954465306</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3252595</v>
+        <v>1.027368666666667</v>
       </c>
       <c r="H9">
-        <v>0.650519</v>
+        <v>3.082106</v>
       </c>
       <c r="I9">
-        <v>0.2404648284099757</v>
+        <v>0.5247204729540329</v>
       </c>
       <c r="J9">
-        <v>0.1742792270854961</v>
+        <v>0.6234992886243209</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N9">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O9">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P9">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q9">
-        <v>0.68324254514625</v>
+        <v>0.07589412060022221</v>
       </c>
       <c r="R9">
-        <v>2.732970180585</v>
+        <v>0.6830470854019999</v>
       </c>
       <c r="S9">
-        <v>0.004225250988629472</v>
+        <v>0.000550191390957933</v>
       </c>
       <c r="T9">
-        <v>0.002557338422798288</v>
+        <v>0.0009595589133568113</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3252595</v>
+        <v>1.027368666666667</v>
       </c>
       <c r="H10">
-        <v>0.650519</v>
+        <v>3.082106</v>
       </c>
       <c r="I10">
-        <v>0.2404648284099757</v>
+        <v>0.5247204729540329</v>
       </c>
       <c r="J10">
-        <v>0.1742792270854961</v>
+        <v>0.6234992886243209</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N10">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O10">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P10">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q10">
-        <v>14.40875407377167</v>
+        <v>0.5475869856489999</v>
       </c>
       <c r="R10">
-        <v>86.45252444262999</v>
+        <v>3.285521913893999</v>
       </c>
       <c r="S10">
-        <v>0.08910540309238356</v>
+        <v>0.003969709944880801</v>
       </c>
       <c r="T10">
-        <v>0.08089673428406061</v>
+        <v>0.004615570295056099</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3252595</v>
+        <v>1.027368666666667</v>
       </c>
       <c r="H11">
-        <v>0.650519</v>
+        <v>3.082106</v>
       </c>
       <c r="I11">
-        <v>0.2404648284099757</v>
+        <v>0.5247204729540329</v>
       </c>
       <c r="J11">
-        <v>0.1742792270854961</v>
+        <v>0.6234992886243209</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N11">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O11">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P11">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q11">
-        <v>0.03456673652283333</v>
+        <v>0.2240403398773333</v>
       </c>
       <c r="R11">
-        <v>0.207400419137</v>
+        <v>2.016363058895999</v>
       </c>
       <c r="S11">
-        <v>0.0002137646999654171</v>
+        <v>0.001624171480648755</v>
       </c>
       <c r="T11">
-        <v>0.0001940720262999677</v>
+        <v>0.002832629239005309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6564075</v>
+      </c>
+      <c r="H12">
+        <v>1.312815</v>
+      </c>
+      <c r="I12">
+        <v>0.3352549722662761</v>
+      </c>
+      <c r="J12">
+        <v>0.2655778933610129</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>66.82269500000001</v>
+      </c>
+      <c r="N12">
+        <v>133.64539</v>
+      </c>
+      <c r="O12">
+        <v>0.9484795058090217</v>
+      </c>
+      <c r="P12">
+        <v>0.9280825194026978</v>
+      </c>
+      <c r="Q12">
+        <v>43.86291816821251</v>
+      </c>
+      <c r="R12">
+        <v>175.45167267285</v>
+      </c>
+      <c r="S12">
+        <v>0.3179824704151348</v>
+      </c>
+      <c r="T12">
+        <v>0.2464782003681499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6564075</v>
+      </c>
+      <c r="H13">
+        <v>1.312815</v>
+      </c>
+      <c r="I13">
+        <v>0.3352549722662761</v>
+      </c>
+      <c r="J13">
+        <v>0.2655778933610129</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.804800666666666</v>
+      </c>
+      <c r="N13">
+        <v>8.414401999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.03981126397570188</v>
+      </c>
+      <c r="P13">
+        <v>0.05843268823134937</v>
+      </c>
+      <c r="Q13">
+        <v>1.841092193605</v>
+      </c>
+      <c r="R13">
+        <v>11.04655316163</v>
+      </c>
+      <c r="S13">
+        <v>0.01334692420005933</v>
+      </c>
+      <c r="T13">
+        <v>0.01551843024390262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6564075</v>
+      </c>
+      <c r="H14">
+        <v>1.312815</v>
+      </c>
+      <c r="I14">
+        <v>0.3352549722662761</v>
+      </c>
+      <c r="J14">
+        <v>0.2655778933610129</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.07387233333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.221617</v>
+      </c>
+      <c r="O14">
+        <v>0.001048541879565906</v>
+      </c>
+      <c r="P14">
+        <v>0.001538989588061868</v>
+      </c>
+      <c r="Q14">
+        <v>0.0484903536425</v>
+      </c>
+      <c r="R14">
+        <v>0.290942121855</v>
+      </c>
+      <c r="S14">
+        <v>0.000351528878753897</v>
+      </c>
+      <c r="T14">
+        <v>0.0004087216127020039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6564075</v>
+      </c>
+      <c r="H15">
+        <v>1.312815</v>
+      </c>
+      <c r="I15">
+        <v>0.3352549722662761</v>
+      </c>
+      <c r="J15">
+        <v>0.2655778933610129</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5329995</v>
+      </c>
+      <c r="N15">
+        <v>1.065999</v>
+      </c>
+      <c r="O15">
+        <v>0.007565380330087788</v>
+      </c>
+      <c r="P15">
+        <v>0.007402687347470469</v>
+      </c>
+      <c r="Q15">
+        <v>0.34986486929625</v>
+      </c>
+      <c r="R15">
+        <v>1.399459477185</v>
+      </c>
+      <c r="S15">
+        <v>0.002536331372747412</v>
+      </c>
+      <c r="T15">
+        <v>0.001965990110951432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6564075</v>
+      </c>
+      <c r="H16">
+        <v>1.312815</v>
+      </c>
+      <c r="I16">
+        <v>0.3352549722662761</v>
+      </c>
+      <c r="J16">
+        <v>0.2655778933610129</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.218072</v>
+      </c>
+      <c r="N16">
+        <v>0.6542159999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.003095308005622714</v>
+      </c>
+      <c r="P16">
+        <v>0.004543115430420422</v>
+      </c>
+      <c r="Q16">
+        <v>0.14314409634</v>
+      </c>
+      <c r="R16">
+        <v>0.8588645780399999</v>
+      </c>
+      <c r="S16">
+        <v>0.001037717399580625</v>
+      </c>
+      <c r="T16">
+        <v>0.001206551025306967</v>
       </c>
     </row>
   </sheetData>
